--- a/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-dificil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-dificil-dificultad.xlsx
@@ -121,7 +121,7 @@
     <t>39.835 (248)</t>
   </si>
   <si>
-    <t>11.863 (248)</t>
+    <t>11.871 (248)</t>
   </si>
   <si>
     <t>11.976 (248)</t>
@@ -175,7 +175,7 @@
     <t>39.484 (157)</t>
   </si>
   <si>
-    <t>11.936 (157)</t>
+    <t>11.93 (157)</t>
   </si>
   <si>
     <t>12.312 (157)</t>
@@ -229,7 +229,7 @@
     <t>32.792 (24)</t>
   </si>
   <si>
-    <t>10.792 (24)</t>
+    <t>10.708 (24)</t>
   </si>
   <si>
     <t>13.458 (24)</t>
@@ -283,7 +283,7 @@
     <t>39.563 (206)</t>
   </si>
   <si>
-    <t>12.092 (206)</t>
+    <t>12.102 (206)</t>
   </si>
   <si>
     <t>12.121 (206)</t>
@@ -337,7 +337,7 @@
     <t>40.687 (179)</t>
   </si>
   <si>
-    <t>11.425 (179)</t>
+    <t>11.419 (179)</t>
   </si>
   <si>
     <t>11.911 (179)</t>
@@ -391,7 +391,7 @@
     <t>31.837 (43)</t>
   </si>
   <si>
-    <t>12.349 (43)</t>
+    <t>12.302 (43)</t>
   </si>
   <si>
     <t>13.721 (43)</t>
@@ -493,7 +493,7 @@
     <t>38.898 (167)</t>
   </si>
   <si>
-    <t>12.012 (167)</t>
+    <t>12.024 (167)</t>
   </si>
   <si>
     <t>11.976 (167)</t>
@@ -547,7 +547,7 @@
     <t>41.404 (198)</t>
   </si>
   <si>
-    <t>11.652 (198)</t>
+    <t>11.646 (198)</t>
   </si>
   <si>
     <t>12.03 (198)</t>
@@ -598,7 +598,7 @@
     <t>34.322 (59)</t>
   </si>
   <si>
-    <t>11.797 (59)</t>
+    <t>11.78 (59)</t>
   </si>
   <si>
     <t>13.085 (59)</t>
@@ -652,7 +652,7 @@
     <t>29.2 (5)</t>
   </si>
   <si>
-    <t>13.2 (5)</t>
+    <t>13.0 (5)</t>
   </si>
   <si>
     <t>14.4 (5)</t>
@@ -706,7 +706,7 @@
     <t>38.115 (130)</t>
   </si>
   <si>
-    <t>12.262 (130)</t>
+    <t>12.277 (130)</t>
   </si>
   <si>
     <t>12.138 (130)</t>
@@ -760,7 +760,7 @@
     <t>40.874 (207)</t>
   </si>
   <si>
-    <t>11.498 (207)</t>
+    <t>11.493 (207)</t>
   </si>
   <si>
     <t>12.014 (207)</t>
@@ -814,7 +814,7 @@
     <t>38.325 (83)</t>
   </si>
   <si>
-    <t>11.928 (83)</t>
+    <t>11.916 (83)</t>
   </si>
   <si>
     <t>12.482 (83)</t>
@@ -868,7 +868,7 @@
     <t>29.778 (9)</t>
   </si>
   <si>
-    <t>12.333 (9)</t>
+    <t>12.222 (9)</t>
   </si>
   <si>
     <t>13.889 (9)</t>
@@ -922,7 +922,7 @@
     <t>36.206 (180)</t>
   </si>
   <si>
-    <t>12.272 (180)</t>
+    <t>12.283 (180)</t>
   </si>
   <si>
     <t>12.572 (180)</t>
@@ -976,7 +976,7 @@
     <t>38.897 (184)</t>
   </si>
   <si>
-    <t>12.533 (184)</t>
+    <t>12.527 (184)</t>
   </si>
   <si>
     <t>12.701 (184)</t>
@@ -1027,7 +1027,7 @@
     <t>40.632 (38)</t>
   </si>
   <si>
-    <t>10.974 (38)</t>
+    <t>10.921 (38)</t>
   </si>
   <si>
     <t>12.947 (38)</t>
@@ -1123,7 +1123,7 @@
     <t>35.073 (137)</t>
   </si>
   <si>
-    <t>12.635 (137)</t>
+    <t>12.642 (137)</t>
   </si>
   <si>
     <t>12.978 (137)</t>
@@ -1177,7 +1177,7 @@
     <t>40.179 (195)</t>
   </si>
   <si>
-    <t>11.923 (195)</t>
+    <t>11.928 (195)</t>
   </si>
   <si>
     <t>12.164 (195)</t>
@@ -1231,7 +1231,7 @@
     <t>37.246 (65)</t>
   </si>
   <si>
-    <t>12.815 (65)</t>
+    <t>12.769 (65)</t>
   </si>
   <si>
     <t>13.508 (65)</t>
@@ -1387,7 +1387,7 @@
     <t>40.435 (193)</t>
   </si>
   <si>
-    <t>11.938 (193)</t>
+    <t>11.943 (193)</t>
   </si>
   <si>
     <t>12.264 (193)</t>
@@ -1441,7 +1441,7 @@
     <t>38.774 (93)</t>
   </si>
   <si>
-    <t>12.624 (93)</t>
+    <t>12.613 (93)</t>
   </si>
   <si>
     <t>13.194 (93)</t>
@@ -1492,7 +1492,7 @@
     <t>25.267 (15)</t>
   </si>
   <si>
-    <t>11.867 (15)</t>
+    <t>11.8 (15)</t>
   </si>
   <si>
     <t>14.533 (15)</t>
@@ -1597,7 +1597,7 @@
     <t>38.661 (171)</t>
   </si>
   <si>
-    <t>11.942 (171)</t>
+    <t>11.947 (171)</t>
   </si>
   <si>
     <t>12.246 (171)</t>
@@ -1651,7 +1651,7 @@
     <t>40.75 (128)</t>
   </si>
   <si>
-    <t>12.359 (128)</t>
+    <t>12.344 (128)</t>
   </si>
   <si>
     <t>12.609 (128)</t>
@@ -1795,7 +1795,7 @@
     <t>34.858 (134)</t>
   </si>
   <si>
-    <t>12.948 (134)</t>
+    <t>12.963 (134)</t>
   </si>
   <si>
     <t>13.0 (134)</t>
@@ -1849,7 +1849,7 @@
     <t>37.43 (186)</t>
   </si>
   <si>
-    <t>12.688 (186)</t>
+    <t>12.683 (186)</t>
   </si>
   <si>
     <t>13.237 (186)</t>
@@ -1903,7 +1903,7 @@
     <t>37.75 (52)</t>
   </si>
   <si>
-    <t>12.327 (52)</t>
+    <t>12.288 (52)</t>
   </si>
   <si>
     <t>13.596 (52)</t>
@@ -1999,7 +1999,7 @@
     <t>33.312 (93)</t>
   </si>
   <si>
-    <t>13.387 (93)</t>
+    <t>13.398 (93)</t>
   </si>
   <si>
     <t>13.323 (93)</t>
@@ -2107,7 +2107,7 @@
     <t>35.94 (83)</t>
   </si>
   <si>
-    <t>13.169 (83)</t>
+    <t>13.145 (83)</t>
   </si>
   <si>
     <t>13.133 (83)</t>
@@ -2305,7 +2305,7 @@
     <t>37.799 (164)</t>
   </si>
   <si>
-    <t>12.47 (164)</t>
+    <t>12.476 (164)</t>
   </si>
   <si>
     <t>13.268 (164)</t>
@@ -2359,7 +2359,7 @@
     <t>38.126 (119)</t>
   </si>
   <si>
-    <t>12.739 (119)</t>
+    <t>12.723 (119)</t>
   </si>
   <si>
     <t>13.092 (119)</t>
@@ -2575,7 +2575,7 @@
     <t>36.076 (144)</t>
   </si>
   <si>
-    <t>12.722 (144)</t>
+    <t>12.729 (144)</t>
   </si>
   <si>
     <t>13.153 (144)</t>
@@ -2629,7 +2629,7 @@
     <t>39.061 (131)</t>
   </si>
   <si>
-    <t>12.695 (131)</t>
+    <t>12.672 (131)</t>
   </si>
   <si>
     <t>13.237 (131)</t>
@@ -2680,7 +2680,7 @@
     <t>37.071 (56)</t>
   </si>
   <si>
-    <t>12.304 (56)</t>
+    <t>12.321 (56)</t>
   </si>
   <si>
     <t>13.089 (56)</t>
@@ -2782,7 +2782,7 @@
     <t>35.924 (92)</t>
   </si>
   <si>
-    <t>13.022 (92)</t>
+    <t>13.033 (92)</t>
   </si>
   <si>
     <t>13.967 (92)</t>
@@ -2836,7 +2836,7 @@
     <t>35.815 (184)</t>
   </si>
   <si>
-    <t>13.158 (184)</t>
+    <t>13.152 (184)</t>
   </si>
   <si>
     <t>13.337 (184)</t>
@@ -2887,7 +2887,7 @@
     <t>35.691 (68)</t>
   </si>
   <si>
-    <t>12.971 (68)</t>
+    <t>12.956 (68)</t>
   </si>
   <si>
     <t>14.25 (68)</t>
@@ -3040,7 +3040,7 @@
     <t>36.395 (157)</t>
   </si>
   <si>
-    <t>12.707 (157)</t>
+    <t>12.713 (157)</t>
   </si>
   <si>
     <t>13.72 (157)</t>
@@ -3091,7 +3091,7 @@
     <t>35.5 (116)</t>
   </si>
   <si>
-    <t>13.319 (116)</t>
+    <t>13.302 (116)</t>
   </si>
   <si>
     <t>13.336 (116)</t>
@@ -3355,7 +3355,7 @@
     <t>35.041 (49)</t>
   </si>
   <si>
-    <t>12.898 (49)</t>
+    <t>12.878 (49)</t>
   </si>
   <si>
     <t>13.571 (49)</t>
@@ -3508,7 +3508,7 @@
     <t>34.0 (102)</t>
   </si>
   <si>
-    <t>12.971 (102)</t>
+    <t>12.98 (102)</t>
   </si>
   <si>
     <t>13.716 (102)</t>
@@ -3559,7 +3559,7 @@
     <t>37.782 (142)</t>
   </si>
   <si>
-    <t>13.232 (142)</t>
+    <t>13.218 (142)</t>
   </si>
   <si>
     <t>13.57 (142)</t>
@@ -4145,10 +4145,10 @@
         <v>4.333</v>
       </c>
       <c r="H2">
-        <v>1.599</v>
+        <v>1.623</v>
       </c>
       <c r="I2">
-        <v>0.111</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4174,10 +4174,10 @@
         <v>-0.969</v>
       </c>
       <c r="H3">
-        <v>-0.41</v>
+        <v>-0.305</v>
       </c>
       <c r="I3">
-        <v>0.6820000000000001</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4203,10 +4203,10 @@
         <v>-2.301</v>
       </c>
       <c r="H4">
-        <v>-0.61</v>
+        <v>-0.487</v>
       </c>
       <c r="I4">
-        <v>0.542</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4232,10 +4232,10 @@
         <v>-1.597</v>
       </c>
       <c r="H5">
-        <v>-0.423</v>
+        <v>-0.404</v>
       </c>
       <c r="I5">
-        <v>0.672</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4261,10 +4261,10 @@
         <v>2.052</v>
       </c>
       <c r="H6">
-        <v>0.534</v>
+        <v>0.452</v>
       </c>
       <c r="I6">
-        <v>0.594</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4290,10 +4290,10 @@
         <v>-2.086</v>
       </c>
       <c r="H7">
-        <v>-0.544</v>
+        <v>-0.576</v>
       </c>
       <c r="I7">
-        <v>0.587</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4316,13 +4316,13 @@
         <v>0.04</v>
       </c>
       <c r="G8">
-        <v>-2.292</v>
+        <v>-2.369</v>
       </c>
       <c r="H8">
-        <v>-2.007</v>
+        <v>-2.375</v>
       </c>
       <c r="I8">
-        <v>0.046</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4348,10 +4348,10 @@
         <v>0.237</v>
       </c>
       <c r="H9">
-        <v>0.204</v>
+        <v>0.152</v>
       </c>
       <c r="I9">
-        <v>0.838</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4377,10 +4377,10 @@
         <v>0.963</v>
       </c>
       <c r="H10">
-        <v>0.697</v>
+        <v>0.516</v>
       </c>
       <c r="I10">
-        <v>0.486</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4406,10 +4406,10 @@
         <v>0.252</v>
       </c>
       <c r="H11">
-        <v>0.185</v>
+        <v>0.162</v>
       </c>
       <c r="I11">
-        <v>0.854</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4435,10 +4435,10 @@
         <v>-0.768</v>
       </c>
       <c r="H12">
-        <v>-0.549</v>
+        <v>-0.502</v>
       </c>
       <c r="I12">
-        <v>0.584</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4464,10 +4464,10 @@
         <v>0.256</v>
       </c>
       <c r="H13">
-        <v>0.185</v>
+        <v>0.212</v>
       </c>
       <c r="I13">
-        <v>0.853</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4493,10 +4493,10 @@
         <v>-0.018</v>
       </c>
       <c r="H14">
-        <v>-0.874</v>
+        <v>-0.949</v>
       </c>
       <c r="I14">
-        <v>0.382</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4522,10 +4522,10 @@
         <v>-0.002</v>
       </c>
       <c r="H15">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="I15">
-        <v>0.912</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4551,10 +4551,10 @@
         <v>0.012</v>
       </c>
       <c r="H16">
-        <v>0.539</v>
+        <v>0.519</v>
       </c>
       <c r="I16">
-        <v>0.59</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4580,10 +4580,10 @@
         <v>-0.013</v>
       </c>
       <c r="H17">
-        <v>-0.586</v>
+        <v>-0.635</v>
       </c>
       <c r="I17">
-        <v>0.5580000000000001</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4609,10 +4609,10 @@
         <v>-0.006</v>
       </c>
       <c r="H18">
-        <v>-0.27</v>
+        <v>-0.19</v>
       </c>
       <c r="I18">
-        <v>0.787</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4638,10 +4638,10 @@
         <v>0.029</v>
       </c>
       <c r="H19">
-        <v>1.301</v>
+        <v>1.708</v>
       </c>
       <c r="I19">
-        <v>0.194</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4734,10 +4734,10 @@
         <v>-0.92</v>
       </c>
       <c r="J2">
-        <v>-0.325</v>
+        <v>-0.367</v>
       </c>
       <c r="K2">
-        <v>0.746</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4769,10 +4769,10 @@
         <v>-0.334</v>
       </c>
       <c r="J3">
-        <v>-0.141</v>
+        <v>-0.116</v>
       </c>
       <c r="K3">
-        <v>0.888</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4804,10 +4804,10 @@
         <v>-1.406</v>
       </c>
       <c r="J4">
-        <v>-0.352</v>
+        <v>-0.349</v>
       </c>
       <c r="K4">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4839,10 +4839,10 @@
         <v>-0.791</v>
       </c>
       <c r="J5">
-        <v>-0.196</v>
+        <v>-0.187</v>
       </c>
       <c r="K5">
-        <v>0.845</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4874,10 +4874,10 @@
         <v>3.674</v>
       </c>
       <c r="J6">
-        <v>0.881</v>
+        <v>0.789</v>
       </c>
       <c r="K6">
-        <v>0.379</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4909,10 +4909,10 @@
         <v>0.433</v>
       </c>
       <c r="J7">
-        <v>0.106</v>
+        <v>0.128</v>
       </c>
       <c r="K7">
-        <v>0.915</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4941,13 +4941,13 @@
         <v>0.042</v>
       </c>
       <c r="I8">
-        <v>-0.539</v>
+        <v>-0.585</v>
       </c>
       <c r="J8">
-        <v>-0.432</v>
+        <v>-0.51</v>
       </c>
       <c r="K8">
-        <v>0.666</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4979,10 +4979,10 @@
         <v>0.408</v>
       </c>
       <c r="J9">
-        <v>0.336</v>
+        <v>0.28</v>
       </c>
       <c r="K9">
-        <v>0.737</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5014,10 +5014,10 @@
         <v>0.257</v>
       </c>
       <c r="J10">
-        <v>0.173</v>
+        <v>0.152</v>
       </c>
       <c r="K10">
-        <v>0.863</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5049,10 +5049,10 @@
         <v>0.044</v>
       </c>
       <c r="J11">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="K11">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5084,10 +5084,10 @@
         <v>-0.665</v>
       </c>
       <c r="J12">
-        <v>-0.436</v>
+        <v>-0.421</v>
       </c>
       <c r="K12">
-        <v>0.663</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5119,10 +5119,10 @@
         <v>-0.604</v>
       </c>
       <c r="J13">
-        <v>-0.407</v>
+        <v>-0.502</v>
       </c>
       <c r="K13">
-        <v>0.6840000000000001</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5154,10 +5154,10 @@
         <v>-0.024</v>
       </c>
       <c r="J14">
-        <v>-1.067</v>
+        <v>-1.483</v>
       </c>
       <c r="K14">
-        <v>0.287</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5189,10 +5189,10 @@
         <v>-0.007</v>
       </c>
       <c r="J15">
-        <v>-0.318</v>
+        <v>-0.28</v>
       </c>
       <c r="K15">
-        <v>0.751</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5224,10 +5224,10 @@
         <v>0.032</v>
       </c>
       <c r="J16">
-        <v>1.295</v>
+        <v>0.834</v>
       </c>
       <c r="K16">
-        <v>0.196</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5259,10 +5259,10 @@
         <v>-0.012</v>
       </c>
       <c r="J17">
-        <v>-0.486</v>
+        <v>-0.468</v>
       </c>
       <c r="K17">
-        <v>0.627</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5294,10 +5294,10 @@
         <v>0.022</v>
       </c>
       <c r="J18">
-        <v>0.9350000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="K18">
-        <v>0.351</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5329,10 +5329,10 @@
         <v>0.046</v>
       </c>
       <c r="J19">
-        <v>1.868</v>
+        <v>2.067</v>
       </c>
       <c r="K19">
-        <v>0.063</v>
+        <v>0.039</v>
       </c>
     </row>
   </sheetData>
@@ -5425,10 +5425,10 @@
         <v>-2.063</v>
       </c>
       <c r="J2">
-        <v>-0.621</v>
+        <v>-0.6919999999999999</v>
       </c>
       <c r="K2">
-        <v>0.535</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5460,10 +5460,10 @@
         <v>-2.128</v>
       </c>
       <c r="J3">
-        <v>-0.769</v>
+        <v>-0.694</v>
       </c>
       <c r="K3">
-        <v>0.442</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5495,10 +5495,10 @@
         <v>-4.347</v>
       </c>
       <c r="J4">
-        <v>-0.93</v>
+        <v>-0.826</v>
       </c>
       <c r="K4">
-        <v>0.353</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5530,10 +5530,10 @@
         <v>-4.303</v>
       </c>
       <c r="J5">
-        <v>-0.911</v>
+        <v>-0.798</v>
       </c>
       <c r="K5">
-        <v>0.363</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5565,10 +5565,10 @@
         <v>1.206</v>
       </c>
       <c r="J6">
-        <v>0.246</v>
+        <v>0.186</v>
       </c>
       <c r="K6">
-        <v>0.806</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5600,10 +5600,10 @@
         <v>0.575</v>
       </c>
       <c r="J7">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="K7">
-        <v>0.904</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5632,13 +5632,13 @@
         <v>0.031</v>
       </c>
       <c r="I8">
-        <v>-0.342</v>
+        <v>-0.365</v>
       </c>
       <c r="J8">
-        <v>-0.234</v>
+        <v>-0.273</v>
       </c>
       <c r="K8">
-        <v>0.8149999999999999</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5670,10 +5670,10 @@
         <v>1.369</v>
       </c>
       <c r="J9">
-        <v>0.964</v>
+        <v>0.823</v>
       </c>
       <c r="K9">
-        <v>0.336</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5705,10 +5705,10 @@
         <v>1.893</v>
       </c>
       <c r="J10">
-        <v>1.088</v>
+        <v>0.912</v>
       </c>
       <c r="K10">
-        <v>0.277</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5740,10 +5740,10 @@
         <v>1.271</v>
       </c>
       <c r="J11">
-        <v>0.735</v>
+        <v>0.697</v>
       </c>
       <c r="K11">
-        <v>0.463</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5775,10 +5775,10 @@
         <v>0.547</v>
       </c>
       <c r="J12">
-        <v>0.305</v>
+        <v>0.233</v>
       </c>
       <c r="K12">
-        <v>0.76</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5810,10 +5810,10 @@
         <v>-0.769</v>
       </c>
       <c r="J13">
-        <v>-0.443</v>
+        <v>-0.463</v>
       </c>
       <c r="K13">
-        <v>0.658</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5845,10 +5845,10 @@
         <v>-0.013</v>
       </c>
       <c r="J14">
-        <v>-0.477</v>
+        <v>-0.545</v>
       </c>
       <c r="K14">
-        <v>0.634</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5880,10 +5880,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J15">
-        <v>-0.345</v>
+        <v>-0.386</v>
       </c>
       <c r="K15">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5915,10 +5915,10 @@
         <v>0.025</v>
       </c>
       <c r="J16">
-        <v>0.881</v>
+        <v>0.58</v>
       </c>
       <c r="K16">
-        <v>0.379</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5950,10 +5950,10 @@
         <v>-0.021</v>
       </c>
       <c r="J17">
-        <v>-0.749</v>
+        <v>-0.67</v>
       </c>
       <c r="K17">
-        <v>0.454</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5985,10 +5985,10 @@
         <v>0.005</v>
       </c>
       <c r="J18">
-        <v>0.179</v>
+        <v>0.132</v>
       </c>
       <c r="K18">
-        <v>0.858</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6020,10 +6020,10 @@
         <v>0.044</v>
       </c>
       <c r="J19">
-        <v>1.541</v>
+        <v>1.544</v>
       </c>
       <c r="K19">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
     </row>
   </sheetData>
@@ -6116,10 +6116,10 @@
         <v>-1.045</v>
       </c>
       <c r="J2">
-        <v>-0.275</v>
+        <v>-0.29</v>
       </c>
       <c r="K2">
-        <v>0.783</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6151,10 +6151,10 @@
         <v>-2.032</v>
       </c>
       <c r="J3">
-        <v>-0.643</v>
+        <v>-0.515</v>
       </c>
       <c r="K3">
-        <v>0.52</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6186,10 +6186,10 @@
         <v>-4.678</v>
       </c>
       <c r="J4">
-        <v>-0.877</v>
+        <v>-0.783</v>
       </c>
       <c r="K4">
-        <v>0.381</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6221,10 +6221,10 @@
         <v>-4.177</v>
       </c>
       <c r="J5">
-        <v>-0.774</v>
+        <v>-0.701</v>
       </c>
       <c r="K5">
-        <v>0.439</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6256,10 +6256,10 @@
         <v>2.272</v>
       </c>
       <c r="J6">
-        <v>0.406</v>
+        <v>0.311</v>
       </c>
       <c r="K6">
-        <v>0.6850000000000001</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6291,10 +6291,10 @@
         <v>3.885</v>
       </c>
       <c r="J7">
-        <v>0.713</v>
+        <v>0.75</v>
       </c>
       <c r="K7">
-        <v>0.476</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6323,13 +6323,13 @@
         <v>0.024</v>
       </c>
       <c r="I8">
-        <v>-0.067</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="J8">
-        <v>-0.04</v>
+        <v>-0.047</v>
       </c>
       <c r="K8">
-        <v>0.968</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6361,10 +6361,10 @@
         <v>1.453</v>
       </c>
       <c r="J9">
-        <v>0.896</v>
+        <v>0.704</v>
       </c>
       <c r="K9">
-        <v>0.371</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6396,10 +6396,10 @@
         <v>2.097</v>
       </c>
       <c r="J10">
-        <v>1.056</v>
+        <v>0.854</v>
       </c>
       <c r="K10">
-        <v>0.292</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6431,10 +6431,10 @@
         <v>0.774</v>
       </c>
       <c r="J11">
-        <v>0.392</v>
+        <v>0.388</v>
       </c>
       <c r="K11">
-        <v>0.696</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6466,10 +6466,10 @@
         <v>0.177</v>
       </c>
       <c r="J12">
-        <v>0.08699999999999999</v>
+        <v>0.067</v>
       </c>
       <c r="K12">
-        <v>0.931</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6501,10 +6501,10 @@
         <v>-2.483</v>
       </c>
       <c r="J13">
-        <v>-1.255</v>
+        <v>-1.355</v>
       </c>
       <c r="K13">
-        <v>0.211</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6536,10 +6536,10 @@
         <v>-0.03</v>
       </c>
       <c r="J14">
-        <v>-0.993</v>
+        <v>-1.265</v>
       </c>
       <c r="K14">
-        <v>0.322</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6571,10 +6571,10 @@
         <v>-0.02</v>
       </c>
       <c r="J15">
-        <v>-0.65</v>
+        <v>-0.853</v>
       </c>
       <c r="K15">
-        <v>0.516</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6606,10 +6606,10 @@
         <v>0.004</v>
       </c>
       <c r="J16">
-        <v>0.109</v>
+        <v>0.092</v>
       </c>
       <c r="K16">
-        <v>0.913</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6641,10 +6641,10 @@
         <v>-0.034</v>
       </c>
       <c r="J17">
-        <v>-1.053</v>
+        <v>-0.957</v>
       </c>
       <c r="K17">
-        <v>0.293</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6676,10 +6676,10 @@
         <v>-0</v>
       </c>
       <c r="J18">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="K18">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6711,10 +6711,10 @@
         <v>0.05</v>
       </c>
       <c r="J19">
-        <v>1.515</v>
+        <v>1.657</v>
       </c>
       <c r="K19">
-        <v>0.131</v>
+        <v>0.098</v>
       </c>
     </row>
   </sheetData>
@@ -6800,10 +6800,10 @@
         <v>0.187</v>
       </c>
       <c r="I2">
-        <v>0.08</v>
+        <v>0.098</v>
       </c>
       <c r="J2">
-        <v>0.9360000000000001</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6832,10 +6832,10 @@
         <v>2.95</v>
       </c>
       <c r="I3">
-        <v>1.541</v>
+        <v>1.149</v>
       </c>
       <c r="J3">
-        <v>0.124</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6864,10 +6864,10 @@
         <v>1.475</v>
       </c>
       <c r="I4">
-        <v>0.417</v>
+        <v>0.337</v>
       </c>
       <c r="J4">
-        <v>0.677</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6896,10 +6896,10 @@
         <v>-3.905</v>
       </c>
       <c r="I5">
-        <v>-1.112</v>
+        <v>-1.159</v>
       </c>
       <c r="J5">
-        <v>0.267</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6928,10 +6928,10 @@
         <v>1.857</v>
       </c>
       <c r="I6">
-        <v>0.514</v>
+        <v>0.451</v>
       </c>
       <c r="J6">
-        <v>0.608</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6960,10 +6960,10 @@
         <v>0.865</v>
       </c>
       <c r="I7">
-        <v>0.239</v>
+        <v>0.216</v>
       </c>
       <c r="J7">
-        <v>0.8110000000000001</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6989,13 +6989,13 @@
         <v>0.063</v>
       </c>
       <c r="H8">
-        <v>-0.916</v>
+        <v>-0.922</v>
       </c>
       <c r="I8">
-        <v>-0.853</v>
+        <v>-0.9429999999999999</v>
       </c>
       <c r="J8">
-        <v>0.395</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7024,10 +7024,10 @@
         <v>-1.214</v>
       </c>
       <c r="I9">
-        <v>-1.186</v>
+        <v>-0.862</v>
       </c>
       <c r="J9">
-        <v>0.236</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7056,10 +7056,10 @@
         <v>-0.833</v>
       </c>
       <c r="I10">
-        <v>-0.63</v>
+        <v>-0.468</v>
       </c>
       <c r="J10">
-        <v>0.529</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7088,10 +7088,10 @@
         <v>1.051</v>
       </c>
       <c r="I11">
-        <v>0.8139999999999999</v>
+        <v>0.779</v>
       </c>
       <c r="J11">
-        <v>0.416</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7120,10 +7120,10 @@
         <v>0.134</v>
       </c>
       <c r="I12">
-        <v>0.101</v>
+        <v>0.091</v>
       </c>
       <c r="J12">
-        <v>0.919</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7152,10 +7152,10 @@
         <v>-0.767</v>
       </c>
       <c r="I13">
-        <v>-0.587</v>
+        <v>-0.52</v>
       </c>
       <c r="J13">
-        <v>0.5580000000000001</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7184,10 +7184,10 @@
         <v>0.007</v>
       </c>
       <c r="I14">
-        <v>0.333</v>
+        <v>0.318</v>
       </c>
       <c r="J14">
-        <v>0.739</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7216,10 +7216,10 @@
         <v>0.02</v>
       </c>
       <c r="I15">
-        <v>0.984</v>
+        <v>0.772</v>
       </c>
       <c r="J15">
-        <v>0.326</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7248,10 +7248,10 @@
         <v>0.046</v>
       </c>
       <c r="I16">
-        <v>2.134</v>
+        <v>1.386</v>
       </c>
       <c r="J16">
-        <v>0.034</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7280,10 +7280,10 @@
         <v>0.017</v>
       </c>
       <c r="I17">
-        <v>0.852</v>
+        <v>0.677</v>
       </c>
       <c r="J17">
-        <v>0.395</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7312,10 +7312,10 @@
         <v>0.023</v>
       </c>
       <c r="I18">
-        <v>1.117</v>
+        <v>0.743</v>
       </c>
       <c r="J18">
-        <v>0.265</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7344,10 +7344,10 @@
         <v>0.022</v>
       </c>
       <c r="I19">
-        <v>1.03</v>
+        <v>0.998</v>
       </c>
       <c r="J19">
-        <v>0.304</v>
+        <v>0.318</v>
       </c>
     </row>
   </sheetData>
@@ -7440,10 +7440,10 @@
         <v>-1.914</v>
       </c>
       <c r="J2">
-        <v>-0.6899999999999999</v>
+        <v>-0.824</v>
       </c>
       <c r="K2">
-        <v>0.491</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7475,10 +7475,10 @@
         <v>4.4</v>
       </c>
       <c r="J3">
-        <v>1.928</v>
+        <v>1.688</v>
       </c>
       <c r="K3">
-        <v>0.055</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7510,7 +7510,7 @@
         <v>2.424</v>
       </c>
       <c r="J4">
-        <v>0.574</v>
+        <v>0.573</v>
       </c>
       <c r="K4">
         <v>0.5659999999999999</v>
@@ -7545,10 +7545,10 @@
         <v>-1.774</v>
       </c>
       <c r="J5">
-        <v>-0.422</v>
+        <v>-0.525</v>
       </c>
       <c r="K5">
-        <v>0.673</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7580,10 +7580,10 @@
         <v>3.155</v>
       </c>
       <c r="J6">
-        <v>0.731</v>
+        <v>0.716</v>
       </c>
       <c r="K6">
-        <v>0.466</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7615,10 +7615,10 @@
         <v>-1.642</v>
       </c>
       <c r="J7">
-        <v>-0.38</v>
+        <v>-0.371</v>
       </c>
       <c r="K7">
-        <v>0.704</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7647,13 +7647,13 @@
         <v>0.042</v>
       </c>
       <c r="I8">
-        <v>0.255</v>
+        <v>0.246</v>
       </c>
       <c r="J8">
-        <v>0.198</v>
+        <v>0.205</v>
       </c>
       <c r="K8">
-        <v>0.843</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7685,10 +7685,10 @@
         <v>-2.118</v>
       </c>
       <c r="J9">
-        <v>-1.737</v>
+        <v>-1.513</v>
       </c>
       <c r="K9">
-        <v>0.083</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7720,10 +7720,10 @@
         <v>-1.301</v>
       </c>
       <c r="J10">
-        <v>-0.824</v>
+        <v>-0.711</v>
       </c>
       <c r="K10">
-        <v>0.411</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7755,10 +7755,10 @@
         <v>0.268</v>
       </c>
       <c r="J11">
-        <v>0.174</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>0.862</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7790,10 +7790,10 @@
         <v>-0.552</v>
       </c>
       <c r="J12">
-        <v>-0.348</v>
+        <v>-0.334</v>
       </c>
       <c r="K12">
-        <v>0.728</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7825,10 +7825,10 @@
         <v>0.277</v>
       </c>
       <c r="J13">
-        <v>0.177</v>
+        <v>0.168</v>
       </c>
       <c r="K13">
-        <v>0.859</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7860,10 +7860,10 @@
         <v>-0.006</v>
       </c>
       <c r="J14">
-        <v>-0.24</v>
+        <v>-0.281</v>
       </c>
       <c r="K14">
-        <v>0.8100000000000001</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7895,10 +7895,10 @@
         <v>0.014</v>
       </c>
       <c r="J15">
-        <v>0.573</v>
+        <v>0.512</v>
       </c>
       <c r="K15">
-        <v>0.5669999999999999</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7930,10 +7930,10 @@
         <v>0.058</v>
       </c>
       <c r="J16">
-        <v>2.259</v>
+        <v>1.543</v>
       </c>
       <c r="K16">
-        <v>0.025</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7965,10 +7965,10 @@
         <v>0.006</v>
       </c>
       <c r="J17">
-        <v>0.258</v>
+        <v>0.242</v>
       </c>
       <c r="K17">
-        <v>0.796</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8000,10 +8000,10 @@
         <v>0.026</v>
       </c>
       <c r="J18">
-        <v>1.069</v>
+        <v>0.789</v>
       </c>
       <c r="K18">
-        <v>0.286</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8035,10 +8035,10 @@
         <v>0.03</v>
       </c>
       <c r="J19">
-        <v>1.162</v>
+        <v>1.261</v>
       </c>
       <c r="K19">
-        <v>0.246</v>
+        <v>0.207</v>
       </c>
     </row>
   </sheetData>
@@ -8131,10 +8131,10 @@
         <v>-0.428</v>
       </c>
       <c r="J2">
-        <v>-0.132</v>
+        <v>-0.122</v>
       </c>
       <c r="K2">
-        <v>0.895</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8166,10 +8166,10 @@
         <v>2.382</v>
       </c>
       <c r="J3">
-        <v>0.891</v>
+        <v>0.755</v>
       </c>
       <c r="K3">
-        <v>0.373</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8201,10 +8201,10 @@
         <v>-5.414</v>
       </c>
       <c r="J4">
-        <v>-1.102</v>
+        <v>-1.166</v>
       </c>
       <c r="K4">
-        <v>0.271</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8236,10 +8236,10 @@
         <v>-7.001</v>
       </c>
       <c r="J5">
-        <v>-1.434</v>
+        <v>-1.705</v>
       </c>
       <c r="K5">
-        <v>0.153</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8271,10 +8271,10 @@
         <v>1.055</v>
       </c>
       <c r="J6">
-        <v>0.21</v>
+        <v>0.171</v>
       </c>
       <c r="K6">
-        <v>0.834</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8306,10 +8306,10 @@
         <v>-0.674</v>
       </c>
       <c r="J7">
-        <v>-0.134</v>
+        <v>-0.119</v>
       </c>
       <c r="K7">
-        <v>0.894</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8338,13 +8338,13 @@
         <v>0.032</v>
       </c>
       <c r="I8">
-        <v>-0.6870000000000001</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="J8">
-        <v>-0.459</v>
+        <v>-0.427</v>
       </c>
       <c r="K8">
-        <v>0.647</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8376,10 +8376,10 @@
         <v>-1.132</v>
       </c>
       <c r="J9">
-        <v>-0.794</v>
+        <v>-0.655</v>
       </c>
       <c r="K9">
-        <v>0.428</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8411,10 +8411,10 @@
         <v>1.898</v>
       </c>
       <c r="J10">
-        <v>1.032</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="K10">
-        <v>0.303</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8446,10 +8446,10 @@
         <v>2.186</v>
       </c>
       <c r="J11">
-        <v>1.218</v>
+        <v>1.498</v>
       </c>
       <c r="K11">
-        <v>0.224</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8481,10 +8481,10 @@
         <v>0.793</v>
       </c>
       <c r="J12">
-        <v>0.429</v>
+        <v>0.352</v>
       </c>
       <c r="K12">
-        <v>0.668</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8516,10 +8516,10 @@
         <v>-0.109</v>
       </c>
       <c r="J13">
-        <v>-0.06</v>
+        <v>-0.054</v>
       </c>
       <c r="K13">
-        <v>0.952</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8551,10 +8551,10 @@
         <v>0.012</v>
       </c>
       <c r="J14">
-        <v>0.442</v>
+        <v>0.489</v>
       </c>
       <c r="K14">
-        <v>0.659</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8586,10 +8586,10 @@
         <v>0.02</v>
       </c>
       <c r="J15">
-        <v>0.708</v>
+        <v>0.827</v>
       </c>
       <c r="K15">
-        <v>0.479</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8621,10 +8621,10 @@
         <v>0.047</v>
       </c>
       <c r="J16">
-        <v>1.584</v>
+        <v>1.085</v>
       </c>
       <c r="K16">
-        <v>0.114</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8656,10 +8656,10 @@
         <v>-0.007</v>
       </c>
       <c r="J17">
-        <v>-0.233</v>
+        <v>-0.216</v>
       </c>
       <c r="K17">
-        <v>0.8159999999999999</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8691,10 +8691,10 @@
         <v>0.012</v>
       </c>
       <c r="J18">
-        <v>0.412</v>
+        <v>0.328</v>
       </c>
       <c r="K18">
-        <v>0.681</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8726,10 +8726,10 @@
         <v>0.016</v>
       </c>
       <c r="J19">
-        <v>0.547</v>
+        <v>0.534</v>
       </c>
       <c r="K19">
-        <v>0.585</v>
+        <v>0.594</v>
       </c>
     </row>
   </sheetData>
@@ -8829,10 +8829,10 @@
         <v>-2.161</v>
       </c>
       <c r="K2">
-        <v>-0.6</v>
+        <v>-0.552</v>
       </c>
       <c r="L2">
-        <v>0.549</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8867,10 +8867,10 @@
         <v>1.157</v>
       </c>
       <c r="K3">
-        <v>0.388</v>
+        <v>0.341</v>
       </c>
       <c r="L3">
-        <v>0.698</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8905,10 +8905,10 @@
         <v>-4.763</v>
       </c>
       <c r="K4">
-        <v>-0.87</v>
+        <v>-0.85</v>
       </c>
       <c r="L4">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8943,10 +8943,10 @@
         <v>-7.838</v>
       </c>
       <c r="K5">
-        <v>-1.442</v>
+        <v>-1.737</v>
       </c>
       <c r="L5">
-        <v>0.15</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8981,10 +8981,10 @@
         <v>0.8090000000000001</v>
       </c>
       <c r="K6">
-        <v>0.144</v>
+        <v>0.131</v>
       </c>
       <c r="L6">
-        <v>0.885</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9019,10 +9019,10 @@
         <v>1.465</v>
       </c>
       <c r="K7">
-        <v>0.262</v>
+        <v>0.279</v>
       </c>
       <c r="L7">
-        <v>0.794</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9054,13 +9054,13 @@
         <v>0.025</v>
       </c>
       <c r="J8">
-        <v>0.672</v>
+        <v>0.662</v>
       </c>
       <c r="K8">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="L8">
-        <v>0.6870000000000001</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9095,10 +9095,10 @@
         <v>-0.391</v>
       </c>
       <c r="K9">
-        <v>-0.246</v>
+        <v>-0.203</v>
       </c>
       <c r="L9">
-        <v>0.806</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9133,10 +9133,10 @@
         <v>1.52</v>
       </c>
       <c r="K10">
-        <v>0.742</v>
+        <v>0.62</v>
       </c>
       <c r="L10">
-        <v>0.459</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9171,10 +9171,10 @@
         <v>2.117</v>
       </c>
       <c r="K11">
-        <v>1.059</v>
+        <v>1.257</v>
       </c>
       <c r="L11">
-        <v>0.291</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9209,10 +9209,10 @@
         <v>0.742</v>
       </c>
       <c r="K12">
-        <v>0.361</v>
+        <v>0.324</v>
       </c>
       <c r="L12">
-        <v>0.718</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9247,10 +9247,10 @@
         <v>-1.167</v>
       </c>
       <c r="K13">
-        <v>-0.576</v>
+        <v>-0.64</v>
       </c>
       <c r="L13">
-        <v>0.5649999999999999</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9285,10 +9285,10 @@
         <v>0.005</v>
       </c>
       <c r="K14">
-        <v>0.149</v>
+        <v>0.169</v>
       </c>
       <c r="L14">
-        <v>0.881</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9323,10 +9323,10 @@
         <v>0.013</v>
       </c>
       <c r="K15">
-        <v>0.408</v>
+        <v>0.639</v>
       </c>
       <c r="L15">
-        <v>0.6830000000000001</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9361,10 +9361,10 @@
         <v>0.029</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.763</v>
       </c>
       <c r="L16">
-        <v>0.383</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9399,10 +9399,10 @@
         <v>-0.015</v>
       </c>
       <c r="K17">
-        <v>-0.478</v>
+        <v>-0.512</v>
       </c>
       <c r="L17">
-        <v>0.633</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9437,10 +9437,10 @@
         <v>0.007</v>
       </c>
       <c r="K18">
-        <v>0.205</v>
+        <v>0.192</v>
       </c>
       <c r="L18">
-        <v>0.838</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9475,10 +9475,10 @@
         <v>0.013</v>
       </c>
       <c r="K19">
-        <v>0.401</v>
+        <v>0.499</v>
       </c>
       <c r="L19">
-        <v>0.6879999999999999</v>
+        <v>0.617</v>
       </c>
     </row>
   </sheetData>
@@ -9564,10 +9564,10 @@
         <v>3.781</v>
       </c>
       <c r="I2">
-        <v>1.182</v>
+        <v>1.102</v>
       </c>
       <c r="J2">
-        <v>0.238</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9596,10 +9596,10 @@
         <v>-1.294</v>
       </c>
       <c r="I3">
-        <v>-0.464</v>
+        <v>-0.365</v>
       </c>
       <c r="J3">
-        <v>0.643</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9628,10 +9628,10 @@
         <v>-3.625</v>
       </c>
       <c r="I4">
-        <v>-0.8159999999999999</v>
+        <v>-0.697</v>
       </c>
       <c r="J4">
-        <v>0.415</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9660,10 +9660,10 @@
         <v>-2.645</v>
       </c>
       <c r="I5">
-        <v>-0.595</v>
+        <v>-0.63</v>
       </c>
       <c r="J5">
-        <v>0.552</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9692,10 +9692,10 @@
         <v>1.971</v>
       </c>
       <c r="I6">
-        <v>0.435</v>
+        <v>0.392</v>
       </c>
       <c r="J6">
-        <v>0.664</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9724,10 +9724,10 @@
         <v>-5.956</v>
       </c>
       <c r="I7">
-        <v>-1.32</v>
+        <v>-1.302</v>
       </c>
       <c r="J7">
-        <v>0.188</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9753,13 +9753,13 @@
         <v>0.028</v>
       </c>
       <c r="H8">
-        <v>-1.884</v>
+        <v>-1.959</v>
       </c>
       <c r="I8">
-        <v>-1.396</v>
+        <v>-1.415</v>
       </c>
       <c r="J8">
-        <v>0.164</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9788,10 +9788,10 @@
         <v>0.574</v>
       </c>
       <c r="I9">
-        <v>0.421</v>
+        <v>0.325</v>
       </c>
       <c r="J9">
-        <v>0.674</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9820,10 +9820,10 @@
         <v>1.085</v>
       </c>
       <c r="I10">
-        <v>0.666</v>
+        <v>0.538</v>
       </c>
       <c r="J10">
-        <v>0.506</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9852,10 +9852,10 @@
         <v>0.365</v>
       </c>
       <c r="I11">
-        <v>0.227</v>
+        <v>0.218</v>
       </c>
       <c r="J11">
-        <v>0.82</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9884,10 +9884,10 @@
         <v>-0.699</v>
       </c>
       <c r="I12">
-        <v>-0.424</v>
+        <v>-0.415</v>
       </c>
       <c r="J12">
-        <v>0.672</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9916,10 +9916,10 @@
         <v>1.672</v>
       </c>
       <c r="I13">
-        <v>1.027</v>
+        <v>1.09</v>
       </c>
       <c r="J13">
-        <v>0.305</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9948,10 +9948,10 @@
         <v>-0.028</v>
       </c>
       <c r="I14">
-        <v>-1.151</v>
+        <v>-1.332</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9980,10 +9980,10 @@
         <v>-0.001</v>
       </c>
       <c r="I15">
-        <v>-0.054</v>
+        <v>-0.048</v>
       </c>
       <c r="J15">
-        <v>0.957</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10012,10 +10012,10 @@
         <v>0.019</v>
       </c>
       <c r="I16">
-        <v>0.73</v>
+        <v>0.625</v>
       </c>
       <c r="J16">
-        <v>0.466</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10044,10 +10044,10 @@
         <v>-0.001</v>
       </c>
       <c r="I17">
-        <v>-0.027</v>
+        <v>-0.035</v>
       </c>
       <c r="J17">
-        <v>0.979</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10076,10 +10076,10 @@
         <v>0.015</v>
       </c>
       <c r="I18">
-        <v>0.572</v>
+        <v>0.447</v>
       </c>
       <c r="J18">
-        <v>0.5669999999999999</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10108,10 +10108,10 @@
         <v>0.044</v>
       </c>
       <c r="I19">
-        <v>1.649</v>
+        <v>2.028</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.043</v>
       </c>
     </row>
   </sheetData>
@@ -10197,10 +10197,10 @@
         <v>2.588</v>
       </c>
       <c r="I2">
-        <v>0.679</v>
+        <v>0.58</v>
       </c>
       <c r="J2">
-        <v>0.498</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10229,10 +10229,10 @@
         <v>-1.918</v>
       </c>
       <c r="I3">
-        <v>-0.578</v>
+        <v>-0.504</v>
       </c>
       <c r="J3">
-        <v>0.5629999999999999</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10261,10 +10261,10 @@
         <v>-6.052</v>
       </c>
       <c r="I4">
-        <v>-1.146</v>
+        <v>-0.891</v>
       </c>
       <c r="J4">
-        <v>0.253</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10293,10 +10293,10 @@
         <v>-6.027</v>
       </c>
       <c r="I5">
-        <v>-1.141</v>
+        <v>-1.15</v>
       </c>
       <c r="J5">
-        <v>0.255</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10325,10 +10325,10 @@
         <v>0.108</v>
       </c>
       <c r="I6">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="J6">
-        <v>0.984</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10357,10 +10357,10 @@
         <v>-5.648</v>
       </c>
       <c r="I7">
-        <v>-1.05</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="J7">
-        <v>0.294</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10386,13 +10386,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>-1.815</v>
+        <v>-1.93</v>
       </c>
       <c r="I8">
-        <v>-1.128</v>
+        <v>-1.053</v>
       </c>
       <c r="J8">
-        <v>0.26</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10421,10 +10421,10 @@
         <v>1.318</v>
       </c>
       <c r="I9">
-        <v>0.8120000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="J9">
-        <v>0.417</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10453,10 +10453,10 @@
         <v>2.528</v>
       </c>
       <c r="I10">
-        <v>1.306</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J10">
-        <v>0.192</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10485,10 +10485,10 @@
         <v>1.325</v>
       </c>
       <c r="I11">
-        <v>0.6929999999999999</v>
+        <v>0.631</v>
       </c>
       <c r="J11">
-        <v>0.489</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10517,10 +10517,10 @@
         <v>0.119</v>
       </c>
       <c r="I12">
-        <v>0.06</v>
+        <v>0.053</v>
       </c>
       <c r="J12">
-        <v>0.952</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10549,10 +10549,10 @@
         <v>1.837</v>
       </c>
       <c r="I13">
-        <v>0.947</v>
+        <v>0.906</v>
       </c>
       <c r="J13">
-        <v>0.344</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10581,10 +10581,10 @@
         <v>-0.023</v>
       </c>
       <c r="I14">
-        <v>-0.777</v>
+        <v>-0.837</v>
       </c>
       <c r="J14">
-        <v>0.437</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10613,10 +10613,10 @@
         <v>-0.02</v>
       </c>
       <c r="I15">
-        <v>-0.695</v>
+        <v>-0.632</v>
       </c>
       <c r="J15">
-        <v>0.487</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10645,10 +10645,10 @@
         <v>-0.008</v>
       </c>
       <c r="I16">
-        <v>-0.26</v>
+        <v>-0.238</v>
       </c>
       <c r="J16">
-        <v>0.795</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10677,10 +10677,10 @@
         <v>-0.018</v>
       </c>
       <c r="I17">
-        <v>-0.571</v>
+        <v>-0.669</v>
       </c>
       <c r="J17">
-        <v>0.5679999999999999</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10709,10 +10709,10 @@
         <v>-0.028</v>
       </c>
       <c r="I18">
-        <v>-0.89</v>
+        <v>-0.742</v>
       </c>
       <c r="J18">
-        <v>0.374</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10741,10 +10741,10 @@
         <v>0.037</v>
       </c>
       <c r="I19">
-        <v>1.158</v>
+        <v>1.367</v>
       </c>
       <c r="J19">
-        <v>0.248</v>
+        <v>0.172</v>
       </c>
     </row>
   </sheetData>
@@ -10830,10 +10830,10 @@
         <v>3.388</v>
       </c>
       <c r="I2">
-        <v>0.771</v>
+        <v>0.719</v>
       </c>
       <c r="J2">
-        <v>0.441</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10862,10 +10862,10 @@
         <v>-1.624</v>
       </c>
       <c r="I3">
-        <v>-0.425</v>
+        <v>-0.37</v>
       </c>
       <c r="J3">
-        <v>0.671</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10894,10 +10894,10 @@
         <v>-7.43</v>
       </c>
       <c r="I4">
-        <v>-1.22</v>
+        <v>-0.902</v>
       </c>
       <c r="J4">
-        <v>0.223</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10926,10 +10926,10 @@
         <v>-6.964</v>
       </c>
       <c r="I5">
-        <v>-1.144</v>
+        <v>-1.215</v>
       </c>
       <c r="J5">
-        <v>0.254</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10958,10 +10958,10 @@
         <v>1.715</v>
       </c>
       <c r="I6">
-        <v>0.276</v>
+        <v>0.265</v>
       </c>
       <c r="J6">
-        <v>0.783</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10990,10 +10990,10 @@
         <v>-4.99</v>
       </c>
       <c r="I7">
-        <v>-0.804</v>
+        <v>-0.789</v>
       </c>
       <c r="J7">
-        <v>0.422</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11019,13 +11019,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-1.213</v>
+        <v>-1.336</v>
       </c>
       <c r="I8">
-        <v>-0.653</v>
+        <v>-0.696</v>
       </c>
       <c r="J8">
-        <v>0.514</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11054,10 +11054,10 @@
         <v>1.488</v>
       </c>
       <c r="I9">
-        <v>0.795</v>
+        <v>0.654</v>
       </c>
       <c r="J9">
-        <v>0.427</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11086,10 +11086,10 @@
         <v>2.977</v>
       </c>
       <c r="I10">
-        <v>1.334</v>
+        <v>0.948</v>
       </c>
       <c r="J10">
-        <v>0.183</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11118,10 +11118,10 @@
         <v>0.931</v>
       </c>
       <c r="I11">
-        <v>0.422</v>
+        <v>0.403</v>
       </c>
       <c r="J11">
-        <v>0.673</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11150,10 +11150,10 @@
         <v>-0.593</v>
       </c>
       <c r="I12">
-        <v>-0.262</v>
+        <v>-0.267</v>
       </c>
       <c r="J12">
-        <v>0.794</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11182,10 +11182,10 @@
         <v>1.347</v>
       </c>
       <c r="I13">
-        <v>0.602</v>
+        <v>0.681</v>
       </c>
       <c r="J13">
-        <v>0.548</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11214,10 +11214,10 @@
         <v>-0.047</v>
       </c>
       <c r="I14">
-        <v>-1.392</v>
+        <v>-1.571</v>
       </c>
       <c r="J14">
-        <v>0.165</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11246,10 +11246,10 @@
         <v>-0.024</v>
       </c>
       <c r="I15">
-        <v>-0.712</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="J15">
-        <v>0.477</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11278,10 +11278,10 @@
         <v>-0.01</v>
       </c>
       <c r="I16">
-        <v>-0.266</v>
+        <v>-0.292</v>
       </c>
       <c r="J16">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11310,10 +11310,10 @@
         <v>-0.004</v>
       </c>
       <c r="I17">
-        <v>-0.122</v>
+        <v>-0.157</v>
       </c>
       <c r="J17">
-        <v>0.903</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11342,10 +11342,10 @@
         <v>-0.028</v>
       </c>
       <c r="I18">
-        <v>-0.794</v>
+        <v>-0.75</v>
       </c>
       <c r="J18">
-        <v>0.428</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11374,10 +11374,10 @@
         <v>0.065</v>
       </c>
       <c r="I19">
-        <v>1.791</v>
+        <v>2.27</v>
       </c>
       <c r="J19">
-        <v>0.074</v>
+        <v>0.023</v>
       </c>
     </row>
   </sheetData>
@@ -11463,10 +11463,10 @@
         <v>-0.325</v>
       </c>
       <c r="I2">
-        <v>-0.132</v>
+        <v>-0.121</v>
       </c>
       <c r="J2">
-        <v>0.895</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11495,10 +11495,10 @@
         <v>-1.186</v>
       </c>
       <c r="I3">
-        <v>-0.5590000000000001</v>
+        <v>-0.409</v>
       </c>
       <c r="J3">
-        <v>0.577</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11527,10 +11527,10 @@
         <v>-2.596</v>
       </c>
       <c r="I4">
-        <v>-0.749</v>
+        <v>-0.576</v>
       </c>
       <c r="J4">
-        <v>0.455</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11559,10 +11559,10 @@
         <v>-0.991</v>
       </c>
       <c r="I5">
-        <v>-0.284</v>
+        <v>-0.343</v>
       </c>
       <c r="J5">
-        <v>0.777</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11591,10 +11591,10 @@
         <v>4.7</v>
       </c>
       <c r="I6">
-        <v>1.312</v>
+        <v>1.319</v>
       </c>
       <c r="J6">
-        <v>0.19</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11623,10 +11623,10 @@
         <v>4.338</v>
       </c>
       <c r="I7">
-        <v>1.225</v>
+        <v>1.326</v>
       </c>
       <c r="J7">
-        <v>0.222</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11652,13 +11652,13 @@
         <v>0.049</v>
       </c>
       <c r="H8">
-        <v>-0.546</v>
+        <v>-0.61</v>
       </c>
       <c r="I8">
-        <v>-0.507</v>
+        <v>-0.542</v>
       </c>
       <c r="J8">
-        <v>0.612</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11687,10 +11687,10 @@
         <v>0.93</v>
       </c>
       <c r="I9">
-        <v>0.873</v>
+        <v>0.648</v>
       </c>
       <c r="J9">
-        <v>0.383</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11719,10 +11719,10 @@
         <v>1.192</v>
       </c>
       <c r="I10">
-        <v>0.921</v>
+        <v>0.667</v>
       </c>
       <c r="J10">
-        <v>0.358</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11751,10 +11751,10 @@
         <v>0.13</v>
       </c>
       <c r="I11">
-        <v>0.102</v>
+        <v>0.117</v>
       </c>
       <c r="J11">
-        <v>0.919</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11783,10 +11783,10 @@
         <v>-1.214</v>
       </c>
       <c r="I12">
-        <v>-0.925</v>
+        <v>-0.946</v>
       </c>
       <c r="J12">
-        <v>0.356</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11815,10 +11815,10 @@
         <v>-2.406</v>
       </c>
       <c r="I13">
-        <v>-1.873</v>
+        <v>-2.101</v>
       </c>
       <c r="J13">
-        <v>0.062</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11847,10 +11847,10 @@
         <v>-0.006</v>
       </c>
       <c r="I14">
-        <v>-0.311</v>
+        <v>-0.382</v>
       </c>
       <c r="J14">
-        <v>0.756</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11879,10 +11879,10 @@
         <v>0.001</v>
       </c>
       <c r="I15">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="J15">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11911,10 +11911,10 @@
         <v>0.021</v>
       </c>
       <c r="I16">
-        <v>0.981</v>
+        <v>0.883</v>
       </c>
       <c r="J16">
-        <v>0.327</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11943,10 +11943,10 @@
         <v>-0.007</v>
       </c>
       <c r="I17">
-        <v>-0.338</v>
+        <v>-0.326</v>
       </c>
       <c r="J17">
-        <v>0.736</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11975,10 +11975,10 @@
         <v>0.005</v>
       </c>
       <c r="I18">
-        <v>0.241</v>
+        <v>0.212</v>
       </c>
       <c r="J18">
-        <v>0.8090000000000001</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12007,10 +12007,10 @@
         <v>0.038</v>
       </c>
       <c r="I19">
-        <v>1.823</v>
+        <v>1.966</v>
       </c>
       <c r="J19">
-        <v>0.06900000000000001</v>
+        <v>0.049</v>
       </c>
     </row>
   </sheetData>
@@ -12096,10 +12096,10 @@
         <v>-1.469</v>
       </c>
       <c r="I2">
-        <v>-0.502</v>
+        <v>-0.506</v>
       </c>
       <c r="J2">
-        <v>0.616</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12128,10 +12128,10 @@
         <v>-1.547</v>
       </c>
       <c r="I3">
-        <v>-0.613</v>
+        <v>-0.487</v>
       </c>
       <c r="J3">
-        <v>0.54</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12160,10 +12160,10 @@
         <v>-5.441</v>
       </c>
       <c r="I4">
-        <v>-1.322</v>
+        <v>-1.167</v>
       </c>
       <c r="J4">
-        <v>0.187</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12192,10 +12192,10 @@
         <v>-1.391</v>
       </c>
       <c r="I5">
-        <v>-0.335</v>
+        <v>-0.38</v>
       </c>
       <c r="J5">
-        <v>0.738</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12224,10 +12224,10 @@
         <v>3.381</v>
       </c>
       <c r="I6">
-        <v>0.793</v>
+        <v>0.721</v>
       </c>
       <c r="J6">
-        <v>0.428</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12256,10 +12256,10 @@
         <v>0.599</v>
       </c>
       <c r="I7">
-        <v>0.142</v>
+        <v>0.157</v>
       </c>
       <c r="J7">
-        <v>0.887</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12285,13 +12285,13 @@
         <v>0.034</v>
       </c>
       <c r="H8">
-        <v>0.048</v>
+        <v>-0.012</v>
       </c>
       <c r="I8">
-        <v>0.038</v>
+        <v>-0.01</v>
       </c>
       <c r="J8">
-        <v>0.97</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12320,10 +12320,10 @@
         <v>1.196</v>
       </c>
       <c r="I9">
-        <v>0.945</v>
+        <v>0.751</v>
       </c>
       <c r="J9">
-        <v>0.346</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12352,10 +12352,10 @@
         <v>1.721</v>
       </c>
       <c r="I10">
-        <v>1.119</v>
+        <v>0.92</v>
       </c>
       <c r="J10">
-        <v>0.264</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12384,10 +12384,10 @@
         <v>0.205</v>
       </c>
       <c r="I11">
-        <v>0.135</v>
+        <v>0.152</v>
       </c>
       <c r="J11">
-        <v>0.893</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12416,10 +12416,10 @@
         <v>-0.838</v>
       </c>
       <c r="I12">
-        <v>-0.537</v>
+        <v>-0.496</v>
       </c>
       <c r="J12">
-        <v>0.592</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12448,10 +12448,10 @@
         <v>-0.991</v>
       </c>
       <c r="I13">
-        <v>-0.646</v>
+        <v>-0.763</v>
       </c>
       <c r="J13">
-        <v>0.519</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12480,10 +12480,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.705</v>
+        <v>-0.88</v>
       </c>
       <c r="J14">
-        <v>0.481</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12512,10 +12512,10 @@
         <v>-0.008</v>
       </c>
       <c r="I15">
-        <v>-0.35</v>
+        <v>-0.359</v>
       </c>
       <c r="J15">
-        <v>0.727</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12544,10 +12544,10 @@
         <v>0.031</v>
       </c>
       <c r="I16">
-        <v>1.235</v>
+        <v>0.926</v>
       </c>
       <c r="J16">
-        <v>0.218</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12576,10 +12576,10 @@
         <v>-0.011</v>
       </c>
       <c r="I17">
-        <v>-0.443</v>
+        <v>-0.486</v>
       </c>
       <c r="J17">
-        <v>0.658</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12608,10 +12608,10 @@
         <v>0.029</v>
       </c>
       <c r="I18">
-        <v>1.151</v>
+        <v>1.005</v>
       </c>
       <c r="J18">
-        <v>0.25</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12640,10 +12640,10 @@
         <v>0.064</v>
       </c>
       <c r="I19">
-        <v>2.57</v>
+        <v>2.684</v>
       </c>
       <c r="J19">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>
@@ -12736,10 +12736,10 @@
         <v>-3.195</v>
       </c>
       <c r="J2">
-        <v>-0.9320000000000001</v>
+        <v>-0.976</v>
       </c>
       <c r="K2">
-        <v>0.352</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12771,10 +12771,10 @@
         <v>-3.31</v>
       </c>
       <c r="J3">
-        <v>-1.119</v>
+        <v>-1.019</v>
       </c>
       <c r="K3">
-        <v>0.264</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12806,10 +12806,10 @@
         <v>-8.753</v>
       </c>
       <c r="J4">
-        <v>-1.817</v>
+        <v>-1.516</v>
       </c>
       <c r="K4">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12841,10 +12841,10 @@
         <v>-5.109</v>
       </c>
       <c r="J5">
-        <v>-1.049</v>
+        <v>-1.107</v>
       </c>
       <c r="K5">
-        <v>0.295</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12876,10 +12876,10 @@
         <v>1.998</v>
       </c>
       <c r="J6">
-        <v>0.399</v>
+        <v>0.334</v>
       </c>
       <c r="K6">
-        <v>0.6899999999999999</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12911,10 +12911,10 @@
         <v>1.214</v>
       </c>
       <c r="J7">
-        <v>0.245</v>
+        <v>0.237</v>
       </c>
       <c r="K7">
-        <v>0.8070000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12943,13 +12943,13 @@
         <v>0.026</v>
       </c>
       <c r="I8">
-        <v>0.399</v>
+        <v>0.348</v>
       </c>
       <c r="J8">
-        <v>0.266</v>
+        <v>0.237</v>
       </c>
       <c r="K8">
-        <v>0.791</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12981,10 +12981,10 @@
         <v>2.28</v>
       </c>
       <c r="J9">
-        <v>1.537</v>
+        <v>1.275</v>
       </c>
       <c r="K9">
-        <v>0.125</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13016,10 +13016,10 @@
         <v>3.455</v>
       </c>
       <c r="J10">
-        <v>1.92</v>
+        <v>1.518</v>
       </c>
       <c r="K10">
-        <v>0.056</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13051,10 +13051,10 @@
         <v>1.368</v>
       </c>
       <c r="J11">
-        <v>0.767</v>
+        <v>0.827</v>
       </c>
       <c r="K11">
-        <v>0.444</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13086,10 +13086,10 @@
         <v>-0.091</v>
       </c>
       <c r="J12">
-        <v>-0.049</v>
+        <v>-0.04</v>
       </c>
       <c r="K12">
-        <v>0.961</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13121,10 +13121,10 @@
         <v>-1.26</v>
       </c>
       <c r="J13">
-        <v>-0.7</v>
+        <v>-0.716</v>
       </c>
       <c r="K13">
-        <v>0.485</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13156,10 +13156,10 @@
         <v>-0.029</v>
       </c>
       <c r="J14">
-        <v>-1.067</v>
+        <v>-1.099</v>
       </c>
       <c r="K14">
-        <v>0.287</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13191,10 +13191,10 @@
         <v>-0.024</v>
       </c>
       <c r="J15">
-        <v>-0.885</v>
+        <v>-1</v>
       </c>
       <c r="K15">
-        <v>0.377</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13226,10 +13226,10 @@
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>0.326</v>
+        <v>0.255</v>
       </c>
       <c r="K16">
-        <v>0.745</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13261,10 +13261,10 @@
         <v>-0.027</v>
       </c>
       <c r="J17">
-        <v>-0.926</v>
+        <v>-1.018</v>
       </c>
       <c r="K17">
-        <v>0.355</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13296,10 +13296,10 @@
         <v>-0.002</v>
       </c>
       <c r="J18">
-        <v>-0.055</v>
+        <v>-0.052</v>
       </c>
       <c r="K18">
-        <v>0.956</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13331,10 +13331,10 @@
         <v>0.057</v>
       </c>
       <c r="J19">
-        <v>1.932</v>
+        <v>2.042</v>
       </c>
       <c r="K19">
-        <v>0.054</v>
+        <v>0.041</v>
       </c>
     </row>
   </sheetData>
@@ -13427,10 +13427,10 @@
         <v>-1.948</v>
       </c>
       <c r="J2">
-        <v>-0.497</v>
+        <v>-0.491</v>
       </c>
       <c r="K2">
-        <v>0.619</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13462,10 +13462,10 @@
         <v>-3.276</v>
       </c>
       <c r="J3">
-        <v>-0.97</v>
+        <v>-0.777</v>
       </c>
       <c r="K3">
-        <v>0.333</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13497,10 +13497,10 @@
         <v>-10.218</v>
       </c>
       <c r="J4">
-        <v>-1.859</v>
+        <v>-1.712</v>
       </c>
       <c r="K4">
-        <v>0.064</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13532,10 +13532,10 @@
         <v>-6.915</v>
       </c>
       <c r="J5">
-        <v>-1.245</v>
+        <v>-1.392</v>
       </c>
       <c r="K5">
-        <v>0.214</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13567,10 +13567,10 @@
         <v>2.312</v>
       </c>
       <c r="J6">
-        <v>0.404</v>
+        <v>0.357</v>
       </c>
       <c r="K6">
-        <v>0.6860000000000001</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13602,10 +13602,10 @@
         <v>2.962</v>
       </c>
       <c r="J7">
-        <v>0.524</v>
+        <v>0.534</v>
       </c>
       <c r="K7">
-        <v>0.601</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13634,13 +13634,13 @@
         <v>0.02</v>
       </c>
       <c r="I8">
-        <v>0.574</v>
+        <v>0.539</v>
       </c>
       <c r="J8">
-        <v>0.335</v>
+        <v>0.314</v>
       </c>
       <c r="K8">
-        <v>0.738</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13672,10 +13672,10 @@
         <v>2.481</v>
       </c>
       <c r="J9">
-        <v>1.466</v>
+        <v>1.143</v>
       </c>
       <c r="K9">
-        <v>0.144</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13707,10 +13707,10 @@
         <v>3.988</v>
       </c>
       <c r="J10">
-        <v>1.943</v>
+        <v>1.677</v>
       </c>
       <c r="K10">
-        <v>0.053</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13742,10 +13742,10 @@
         <v>1.464</v>
       </c>
       <c r="J11">
-        <v>0.719</v>
+        <v>0.839</v>
       </c>
       <c r="K11">
-        <v>0.472</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13777,10 +13777,10 @@
         <v>-0.329</v>
       </c>
       <c r="J12">
-        <v>-0.157</v>
+        <v>-0.137</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13812,10 +13812,10 @@
         <v>-2.312</v>
       </c>
       <c r="J13">
-        <v>-1.126</v>
+        <v>-1.189</v>
       </c>
       <c r="K13">
-        <v>0.261</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13847,10 +13847,10 @@
         <v>-0.045</v>
       </c>
       <c r="J14">
-        <v>-1.449</v>
+        <v>-1.647</v>
       </c>
       <c r="K14">
-        <v>0.148</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13882,10 +13882,10 @@
         <v>-0.024</v>
       </c>
       <c r="J15">
-        <v>-0.75</v>
+        <v>-0.957</v>
       </c>
       <c r="K15">
-        <v>0.454</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13917,10 +13917,10 @@
         <v>-0.016</v>
       </c>
       <c r="J16">
-        <v>-0.487</v>
+        <v>-0.469</v>
       </c>
       <c r="K16">
-        <v>0.627</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13952,10 +13952,10 @@
         <v>-0.031</v>
       </c>
       <c r="J17">
-        <v>-0.92</v>
+        <v>-0.951</v>
       </c>
       <c r="K17">
-        <v>0.358</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13987,10 +13987,10 @@
         <v>-0.007</v>
       </c>
       <c r="J18">
-        <v>-0.197</v>
+        <v>-0.188</v>
       </c>
       <c r="K18">
-        <v>0.844</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14022,10 +14022,10 @@
         <v>0.06</v>
       </c>
       <c r="J19">
-        <v>1.79</v>
+        <v>2.154</v>
       </c>
       <c r="K19">
-        <v>0.074</v>
+        <v>0.031</v>
       </c>
     </row>
   </sheetData>
@@ -14111,7 +14111,7 @@
         <v>0.296</v>
       </c>
       <c r="I2">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="J2">
         <v>0.902</v>
@@ -14143,10 +14143,10 @@
         <v>-0.513</v>
       </c>
       <c r="I3">
-        <v>-0.256</v>
+        <v>-0.187</v>
       </c>
       <c r="J3">
-        <v>0.798</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14175,10 +14175,10 @@
         <v>0.343</v>
       </c>
       <c r="I4">
-        <v>0.101</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J4">
-        <v>0.919</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14207,10 +14207,10 @@
         <v>-1.562</v>
       </c>
       <c r="I5">
-        <v>-0.456</v>
+        <v>-0.488</v>
       </c>
       <c r="J5">
-        <v>0.649</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14239,10 +14239,10 @@
         <v>3.772</v>
       </c>
       <c r="I6">
-        <v>1.065</v>
+        <v>1.072</v>
       </c>
       <c r="J6">
-        <v>0.288</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14271,10 +14271,10 @@
         <v>3.955</v>
       </c>
       <c r="I7">
-        <v>1.145</v>
+        <v>1.359</v>
       </c>
       <c r="J7">
-        <v>0.253</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14300,13 +14300,13 @@
         <v>0.059</v>
       </c>
       <c r="H8">
-        <v>-1.133</v>
+        <v>-1.185</v>
       </c>
       <c r="I8">
-        <v>-1.071</v>
+        <v>-1.138</v>
       </c>
       <c r="J8">
-        <v>0.285</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14335,10 +14335,10 @@
         <v>0.499</v>
       </c>
       <c r="I9">
-        <v>0.484</v>
+        <v>0.365</v>
       </c>
       <c r="J9">
-        <v>0.629</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14367,10 +14367,10 @@
         <v>-0.221</v>
       </c>
       <c r="I10">
-        <v>-0.175</v>
+        <v>-0.132</v>
       </c>
       <c r="J10">
-        <v>0.861</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14399,10 +14399,10 @@
         <v>0.398</v>
       </c>
       <c r="I11">
-        <v>0.317</v>
+        <v>0.328</v>
       </c>
       <c r="J11">
-        <v>0.751</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14431,10 +14431,10 @@
         <v>-0.475</v>
       </c>
       <c r="I12">
-        <v>-0.366</v>
+        <v>-0.384</v>
       </c>
       <c r="J12">
-        <v>0.714</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14463,10 +14463,10 @@
         <v>-2.052</v>
       </c>
       <c r="I13">
-        <v>-1.637</v>
+        <v>-2.012</v>
       </c>
       <c r="J13">
-        <v>0.103</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14495,10 +14495,10 @@
         <v>-0.007</v>
       </c>
       <c r="I14">
-        <v>-0.351</v>
+        <v>-0.411</v>
       </c>
       <c r="J14">
-        <v>0.726</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14527,10 +14527,10 @@
         <v>0.002</v>
       </c>
       <c r="I15">
-        <v>0.094</v>
+        <v>0.074</v>
       </c>
       <c r="J15">
-        <v>0.925</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14559,10 +14559,10 @@
         <v>0.022</v>
       </c>
       <c r="I16">
-        <v>1.077</v>
+        <v>0.738</v>
       </c>
       <c r="J16">
-        <v>0.283</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14591,10 +14591,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.398</v>
+        <v>-0.332</v>
       </c>
       <c r="J17">
-        <v>0.6909999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14623,10 +14623,10 @@
         <v>0.012</v>
       </c>
       <c r="I18">
-        <v>0.593</v>
+        <v>0.4</v>
       </c>
       <c r="J18">
-        <v>0.553</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14655,10 +14655,10 @@
         <v>0.034</v>
       </c>
       <c r="I19">
-        <v>1.618</v>
+        <v>1.569</v>
       </c>
       <c r="J19">
-        <v>0.107</v>
+        <v>0.117</v>
       </c>
     </row>
   </sheetData>
